--- a/biology/Médecine/Julien_Vanverts/Julien_Vanverts.xlsx
+++ b/biology/Médecine/Julien_Vanverts/Julien_Vanverts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julien Louis Joseph Vanverts, né le 10 novembre 1870 et mort le 10 mai 1954 à Lille (Nord), fut un chirurgien et obstétricien, professeur à la faculté de médecine de l'université de Lille.
 </t>
@@ -513,20 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un grand patron de Lille
-Fils d'un pharmacien lillois, il suit ses études au Lycée de Lille, puis à la Faculté de Médecine de Lille et fait son internat à la Faculté de Médecine de Paris (reçu en 1894).
+          <t>Un grand patron de Lille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un pharmacien lillois, il suit ses études au Lycée de Lille, puis à la Faculté de Médecine de Lille et fait son internat à la Faculté de Médecine de Paris (reçu en 1894).
 Il fait toute sa carrière à Lille : chef de clinique obstétricale dès 1902 et professeur agrégé de chirurgie (à compter de 1919) à la Faculté de Médecine et de Pharmacie de l'université de Lille. 
 Il se signala par son dévouement et son efficacité pour le traitement des épidémies durant la grande guerre.
-Il fut membre correspondant de la Société de Chirurgie de Paris, associé étranger de la Société belge de Chirurgie (depuis 1905) et membre correspondant de l'Académie nationale de médecine (depuis 1919)[1]. 
-Syndicalisme
-Très attaché à la défense des intérêts et des droits des praticiens, il fut élu Président de la Fédération des Syndicats médicaux du Nord (1920-1940), Président de la Fédération Nationale des Syndicats médicaux français[2] et Vice-Président de la Confédération des Syndicats Médicaux français[3].
-Il fut aussi Médecin Conseil régional de la Sécurité Sociale (1940-1949).
-Fut aussi membre correspondant de la Société belge de Chirurgie, de la Société de Chirurgie de Bucarest, de la Société internationale de Chirurgie.
-Un pionnier de la Langue internationale
-Espérantiste convaincu, puisqu’il devint vice-président de la Société française pour la propagation de l'Espéranto, le Dr Vanverts anima de nombreuses conférences de médecine en langue internationale espéranto.
-Il fut aussi président de l'association mondiale des médecins espérantistes (aujourd’hui association mondiale de médecine en espéranto (eo)).
-Violon d'Ingres
-Le docteur Vanverts était aussi connu à Lille comme pianiste (et violoniste) virtuose ; doué d'une excellente mémoire musicale, il était capable (et ne s'en privait pas), après avoir assisté à un concert, de rejouer de mémoire au piano l'ensemble de l'œuvre qu'il venait d'écouter.
+Il fut membre correspondant de la Société de Chirurgie de Paris, associé étranger de la Société belge de Chirurgie (depuis 1905) et membre correspondant de l'Académie nationale de médecine (depuis 1919). 
 </t>
         </is>
       </c>
@@ -552,10 +560,126 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Syndicalisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très attaché à la défense des intérêts et des droits des praticiens, il fut élu Président de la Fédération des Syndicats médicaux du Nord (1920-1940), Président de la Fédération Nationale des Syndicats médicaux français et Vice-Président de la Confédération des Syndicats Médicaux français.
+Il fut aussi Médecin Conseil régional de la Sécurité Sociale (1940-1949).
+Fut aussi membre correspondant de la Société belge de Chirurgie, de la Société de Chirurgie de Bucarest, de la Société internationale de Chirurgie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Julien_Vanverts</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julien_Vanverts</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Un pionnier de la Langue internationale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espérantiste convaincu, puisqu’il devint vice-président de la Société française pour la propagation de l'Espéranto, le Dr Vanverts anima de nombreuses conférences de médecine en langue internationale espéranto.
+Il fut aussi président de l'association mondiale des médecins espérantistes (aujourd’hui association mondiale de médecine en espéranto (eo)).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Julien_Vanverts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julien_Vanverts</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Violon d'Ingres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le docteur Vanverts était aussi connu à Lille comme pianiste (et violoniste) virtuose ; doué d'une excellente mémoire musicale, il était capable (et ne s'en privait pas), après avoir assisté à un concert, de rejouer de mémoire au piano l'ensemble de l'œuvre qu'il venait d'écouter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Julien_Vanverts</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julien_Vanverts</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Auteur de nombreux articles et ouvrages de chirurgie et de gynécologie, dont :
 De la splénectomie – thèse de doctorat (1897)
@@ -585,31 +709,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Julien_Vanverts</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Julien_Vanverts</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Lauréat de la Faculté de Médecine de Paris (médaille d'argent)
 Lauréat des Hôpitaux de Paris (médaille d'argent de l'internat)
@@ -618,38 +744,40 @@
 Lauréat de l'Académie de Médecine (Prix Tarnier 1913)
 Médaille d'or des Assurances Sociales
 Médaille de vermeil des Épidémies
-Officier de la Légion d'Honneur (1951)[4]
+Officier de la Légion d'Honneur (1951)
 Officier de l'Instruction publique
 Officier du Nicham Iftikar
 Officier de l'Ordre de Vasa</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Julien_Vanverts</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Julien_Vanverts</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Archives de l'AAIHP
 Bulletin du Conseil de l'Ordre des Médecins, avril 1954
